--- a/①TOP画面設計書＿20161008_ver1.0.xlsx
+++ b/①TOP画面設計書＿20161008_ver1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14480" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -363,6 +363,113 @@
     <t>大西</t>
     <rPh sb="0" eb="2">
       <t>オオニシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間設定ボタン</t>
+    <rPh sb="0" eb="4">
+      <t>ジカンセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間設定ボタンを押下すると時間設定画面へ移行する</t>
+    <rPh sb="0" eb="4">
+      <t>ジカンセッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ジカンセッテイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID:003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       ID:004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音量設定ボタン</t>
+    <rPh sb="0" eb="4">
+      <t>オンリョウセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       ID:005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘルプボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音量設定ボタンを押下すると音量設定画面へ移行する</t>
+    <rPh sb="0" eb="4">
+      <t>オンリョウセッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オンリョウ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>セッテイガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘルプボタンを押下するとアプリの使い方の説明文を表示する</t>
+    <rPh sb="7" eb="9">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>セツメイブン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大西</t>
+    <rPh sb="0" eb="2">
+      <t>オオニシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面詳細項目を追記</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンショウサイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -635,6 +742,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -708,9 +818,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -780,14 +887,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>34925</xdr:rowOff>
     </xdr:to>
@@ -830,14 +937,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
@@ -900,13 +1007,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
@@ -949,14 +1056,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
@@ -1022,14 +1129,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
@@ -1072,14 +1179,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
@@ -1141,14 +1248,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
@@ -1191,14 +1298,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:colOff>330200</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
@@ -1260,14 +1367,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1310,14 +1417,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:colOff>330200</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
@@ -1673,7 +1780,7 @@
   <dimension ref="B3:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -1685,83 +1792,83 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" s="7" customFormat="1">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
     </row>
     <row r="4" spans="2:14" s="7" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
     </row>
     <row r="12" spans="2:14">
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
     </row>
     <row r="13" spans="2:14">
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
     </row>
     <row r="17" spans="6:11">
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="14"/>
+      <c r="G17" s="15"/>
       <c r="H17" s="5">
         <v>42651</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="12"/>
+      <c r="J17" s="13"/>
       <c r="K17" s="5">
-        <v>42654</v>
+        <v>42655</v>
       </c>
     </row>
     <row r="18" spans="6:11">
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="14"/>
+      <c r="G18" s="15"/>
       <c r="H18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="12"/>
+      <c r="J18" s="13"/>
       <c r="K18" s="6" t="s">
         <v>52</v>
       </c>
@@ -1795,8 +1902,8 @@
   </sheetPr>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -1805,141 +1912,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="28" t="str">
+      <c r="B1" s="25"/>
+      <c r="C1" s="29" t="str">
         <f>表紙!D3</f>
         <v>目覚ましアプリ</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="22">
+      <c r="F1" s="25"/>
+      <c r="G1" s="23">
         <v>42651</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24" t="s">
+      <c r="H1" s="24"/>
+      <c r="I1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="23" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="23"/>
+      <c r="L1" s="24"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="24" t="s">
+      <c r="F2" s="25"/>
+      <c r="G2" s="26">
+        <v>42655</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="24"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24" t="s">
+      <c r="F6" s="25"/>
+      <c r="G6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="21">
+      <c r="A7" s="22">
         <v>1</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22">
+      <c r="B7" s="22"/>
+      <c r="C7" s="23">
         <v>42651</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23" t="s">
+      <c r="F7" s="24"/>
+      <c r="G7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
+      <c r="A8" s="22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23">
+        <v>42655</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -1991,15 +2110,15 @@
   </sheetPr>
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37:L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
@@ -2007,57 +2126,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="23" t="str">
+      <c r="B1" s="25"/>
+      <c r="C1" s="24" t="str">
         <f>表紙!D3</f>
         <v>目覚ましアプリ</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="22">
+      <c r="F1" s="25"/>
+      <c r="G1" s="23">
         <v>42651</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24" t="s">
+      <c r="H1" s="24"/>
+      <c r="I1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="23" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="23"/>
+      <c r="L1" s="24"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="23" t="str">
+      <c r="B2" s="25"/>
+      <c r="C2" s="24" t="str">
         <f>改版履歴!C2</f>
         <v>メイン画面</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="24" t="s">
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="23" t="str">
+      <c r="J2" s="25"/>
+      <c r="K2" s="24" t="str">
         <f>表紙!K18</f>
         <v>大西</v>
       </c>
-      <c r="L2" s="23"/>
+      <c r="L2" s="24"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
@@ -2222,7 +2341,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="M11" s="36"/>
+      <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1"/>
@@ -2441,20 +2560,20 @@
       <c r="J29" s="1"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
@@ -2466,413 +2585,431 @@
       <c r="C32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="32"/>
+      <c r="B33" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="33"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="35"/>
+      <c r="B34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="36"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="35"/>
+      <c r="B35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="36"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="35"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="36"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="35"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="36"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="35"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="36"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="35"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="36"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="35"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="36"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="35"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="36"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="35"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="36"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="35"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="36"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="35"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="36"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="35"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="36"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="35"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="36"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="35"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="36"/>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="35"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="36"/>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="35"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="36"/>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="35"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="36"/>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="35"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="36"/>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="35"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="36"/>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="35"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="36"/>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="35"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="36"/>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="35"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="36"/>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="35"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="36"/>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="34"/>
-      <c r="L57" s="35"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="36"/>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="35"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="36"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="29" t="s">
+      <c r="A60" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="30"/>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="29" t="s">
+      <c r="A89" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B89" s="29"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="29"/>
-      <c r="H89" s="29"/>
-      <c r="I89" s="29"/>
-      <c r="J89" s="29"/>
-      <c r="K89" s="29"/>
-      <c r="L89" s="29"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="30"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="30"/>
+      <c r="I89" s="30"/>
+      <c r="J89" s="30"/>
+      <c r="K89" s="30"/>
+      <c r="L89" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="42">
